--- a/src/main/doc/5年规划.xlsx
+++ b/src/main/doc/5年规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA2DB3-87F3-4351-B42E-7C0BF93A855B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5284D0-2E9A-4FC9-9F59-1EE69D2D0673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0A46930F-CBB3-4E0A-A03C-8B67DF005C44}</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{0A46930F-CBB3-4E0A-A03C-8B67DF005C44}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    GMAT目标分数700以上</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>2021年</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>研究生录取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>研究生就读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,10 +126,6 @@
   </si>
   <si>
     <t>读2本社会心理学书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>都2本管理类书籍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -142,6 +152,34 @@
   </si>
   <si>
     <t>考FRM证书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读2本管理类书籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考GMAT证书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>演讲能力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈判的能力提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭旅游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会公益活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子能力培养</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -286,10 +324,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,22 +358,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -341,6 +380,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="皇甫 青松" id="{35618CAA-03E2-4080-A345-82B8CAC3AD05}" userId="1beb595f0c92952b" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,15 +649,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B11" dT="2021-04-05T06:17:26.34" personId="{35618CAA-03E2-4080-A345-82B8CAC3AD05}" id="{0A46930F-CBB3-4E0A-A03C-8B67DF005C44}">
+    <text>GMAT目标分数700以上</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,10 +677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
@@ -662,66 +715,66 @@
       <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -750,10 +803,10 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="15"/>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -780,19 +833,19 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -810,17 +863,17 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -838,12 +891,14 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -864,20 +919,18 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -894,19 +947,21 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -922,20 +977,20 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -950,78 +1005,80 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1034,9 +1091,9 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1045,11 +1102,11 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1060,9 +1117,9 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1074,9 +1131,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1086,9 +1143,9 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1102,18 +1159,20 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="2"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1130,66 +1189,70 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1213,7 +1276,9 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1403,21 +1468,46 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="W3:X11"/>
-    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="W3:X12"/>
+    <mergeCell ref="A9:A19"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/doc/5年规划.xlsx
+++ b/src/main/doc/5年规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5284D0-2E9A-4FC9-9F59-1EE69D2D0673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49921006-BD38-4E17-A240-B4276FC365D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>2021年</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>孩子能力培养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果21年没有考上研究生，以下方面将受到影响
+1. 明年需要再花1年时间，且学费很可能涨幅几万
+2. 二胎计划推迟1年
+3.ACP证书、软考高项证书考试推迟
+4.换城市和工作也将收到影响</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -319,12 +327,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
@@ -363,6 +380,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,7 +688,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,10 +927,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -932,21 +955,21 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="3"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="3"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="3"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
     </row>
@@ -1115,6 +1138,10 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
+      <c r="W14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" s="18"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
@@ -1141,6 +1168,8 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
@@ -1167,8 +1196,10 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="17"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
@@ -1193,8 +1224,10 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -1219,8 +1252,10 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="17"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -1245,8 +1280,10 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="17"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1273,8 +1310,10 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="17"/>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
@@ -1299,8 +1338,10 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="17"/>
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1323,8 +1364,10 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="17"/>
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1347,8 +1390,10 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="17"/>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1371,8 +1416,10 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="17"/>
+      <c r="X24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1396,7 +1443,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1420,7 +1467,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1444,7 +1491,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1468,7 +1515,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1493,7 +1540,7 @@
       <c r="V29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="W3:X12"/>
     <mergeCell ref="A9:A19"/>
     <mergeCell ref="C1:F1"/>
@@ -1504,6 +1551,7 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="W14:X24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
